--- a/NIFTY/ind_nifty500list .xlsx
+++ b/NIFTY/ind_nifty500list .xlsx
@@ -12,23 +12,13 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
-    <sheet name="ind_nifty500list " sheetId="1" r:id="rId2"/>
+    <sheet name="ind_nifty500list " sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'ind_nifty500list '!$A$1:$C$502</definedName>
-    <definedName name="Slicer_Industry">#N/A</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ind_nifty500list '!$A$1:$C$502</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <pivotCaches>
-    <pivotCache cacheId="21" r:id="rId3"/>
-  </pivotCaches>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
-      <x14:slicerCaches>
-        <x14:slicerCache r:id="rId4"/>
-      </x14:slicerCaches>
-    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr/>
     </ext>
@@ -37,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1564" uniqueCount="1028">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="1506" uniqueCount="1026">
   <si>
     <t>Company Name</t>
   </si>
@@ -3115,12 +3105,6 @@
   </si>
   <si>
     <t>ECLERX</t>
-  </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Count of Company Name</t>
   </si>
 </sst>
 </file>
@@ -3604,15 +3588,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3669,4931 +3646,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://purl.oclc.org/ooxml/drawingml/spreadsheetDrawing" xmlns:a="http://purl.oclc.org/ooxml/drawingml/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>276224</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>819974</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="2" name="Industry"/>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
-              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Industry"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5419724" y="228600"/>
-              <a:ext cx="8897175" cy="2000250"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-IN" sz="1100"/>
-                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
-If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" r:id="rId1" refreshedBy="Suraj Pandit" refreshedDateIso="2023-05-30T17:25:01.58999974373727975" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="502">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:C1048576" sheet="ind_nifty500list "/>
-  </cacheSource>
-  <cacheFields count="3">
-    <cacheField name="Company Name" numFmtId="0">
-      <sharedItems containsBlank="1" count="502">
-        <s v="360 ONE WAM Ltd."/>
-        <s v="3M India Ltd."/>
-        <s v="ABB India Ltd."/>
-        <s v="ACC Ltd."/>
-        <s v="AIA Engineering Ltd."/>
-        <s v="APL Apollo Tubes Ltd."/>
-        <s v="AU Small Finance Bank Ltd."/>
-        <s v="Aarti Drugs Ltd."/>
-        <s v="Aarti Industries Ltd."/>
-        <s v="Aavas Financiers Ltd."/>
-        <s v="Abbott India Ltd."/>
-        <s v="Adani Enterprises Ltd."/>
-        <s v="Adani Green Energy Ltd."/>
-        <s v="Adani Ports and Special Economic Zone Ltd."/>
-        <s v="Adani Power Ltd."/>
-        <s v="Adani Total Gas Ltd."/>
-        <s v="Adani Transmission Ltd."/>
-        <s v="Adani Wilmar Ltd."/>
-        <s v="Aditya Birla Capital Ltd."/>
-        <s v="Aditya Birla Fashion and Retail Ltd."/>
-        <s v="Aegis Logistics Ltd."/>
-        <s v="Aether Industries Ltd."/>
-        <s v="Affle (India) Ltd."/>
-        <s v="Ajanta Pharmaceuticals Ltd."/>
-        <s v="Alembic Pharmaceuticals Ltd."/>
-        <s v="Alkem Laboratories Ltd."/>
-        <s v="Alkyl Amines Chemicals Ltd."/>
-        <s v="Amara Raja Batteries Ltd."/>
-        <s v="Amber Enterprises India Ltd."/>
-        <s v="Ambuja Cements Ltd."/>
-        <s v="Angel One Ltd."/>
-        <s v="Anupam Rasayan India Ltd."/>
-        <s v="Apar Industries Ltd."/>
-        <s v="Apollo Hospitals Enterprise Ltd."/>
-        <s v="Apollo Tyres Ltd."/>
-        <s v="Aptus Value Housing Finance India Ltd."/>
-        <s v="Archean Chemical Industries Ltd."/>
-        <s v="Asahi India Glass Ltd."/>
-        <s v="Ashok Leyland Ltd."/>
-        <s v="Asian Paints Ltd."/>
-        <s v="Aster DM Healthcare Ltd."/>
-        <s v="Astral Ltd."/>
-        <s v="Atul Ltd."/>
-        <s v="Aurobindo Pharma Ltd."/>
-        <s v="Avanti Feeds Ltd."/>
-        <s v="Avenue Supermarts Ltd."/>
-        <s v="Axis Bank Ltd."/>
-        <s v="BASF India Ltd."/>
-        <s v="BEML Ltd."/>
-        <s v="BLS International Services Ltd."/>
-        <s v="BSE Ltd."/>
-        <s v="Bajaj Auto Ltd."/>
-        <s v="Bajaj Finance Ltd."/>
-        <s v="Bajaj Finserv Ltd."/>
-        <s v="Bajaj Holdings &amp; Investment Ltd."/>
-        <s v="Balaji Amines Ltd."/>
-        <s v="Balkrishna Industries Ltd."/>
-        <s v="Balrampur Chini Mills Ltd."/>
-        <s v="Bandhan Bank Ltd."/>
-        <s v="Bank of Baroda"/>
-        <s v="Bank of India"/>
-        <s v="Bank of Maharashtra"/>
-        <s v="Bata India Ltd."/>
-        <s v="Bayer Cropscience Ltd."/>
-        <s v="Berger Paints India Ltd."/>
-        <s v="Bharat Dynamics Ltd."/>
-        <s v="Bharat Electronics Ltd."/>
-        <s v="Bharat Forge Ltd."/>
-        <s v="Bharat Heavy Electricals Ltd."/>
-        <s v="Bharat Petroleum Corporation Ltd."/>
-        <s v="Bharti Airtel Ltd."/>
-        <s v="Bikaji Foods International Ltd."/>
-        <s v="Biocon Ltd."/>
-        <s v="Birla Corporation Ltd."/>
-        <s v="Birlasoft Ltd."/>
-        <s v="Blue Dart Express Ltd."/>
-        <s v="Blue Star Ltd."/>
-        <s v="Bombay Burmah Trading Corporation Ltd."/>
-        <s v="Borosil Renewables Ltd."/>
-        <s v="Bosch Ltd."/>
-        <s v="Brigade Enterprises Ltd."/>
-        <s v="Brightcom Group Ltd."/>
-        <s v="Britannia Industries Ltd."/>
-        <s v="C.E. Info Systems Ltd."/>
-        <s v="CCL Products (I) Ltd."/>
-        <s v="CESC Ltd."/>
-        <s v="CG Power and Industrial Solutions Ltd."/>
-        <s v="CRISIL Ltd."/>
-        <s v="CSB Bank Ltd."/>
-        <s v="Campus Activewear Ltd."/>
-        <s v="Can Fin Homes Ltd."/>
-        <s v="Canara Bank"/>
-        <s v="Capri Global Capital Ltd."/>
-        <s v="Carborundum Universal Ltd."/>
-        <s v="Castrol India Ltd."/>
-        <s v="Ceat Ltd."/>
-        <s v="Central Bank of India"/>
-        <s v="Central Depository Services (India) Ltd."/>
-        <s v="Century Plyboards (India) Ltd."/>
-        <s v="Century Textile &amp; Industries Ltd."/>
-        <s v="Cera Sanitaryware Ltd"/>
-        <s v="Chalet Hotels Ltd."/>
-        <s v="Chambal Fertilizers &amp; Chemicals Ltd."/>
-        <s v="Chemplast Sanmar Ltd."/>
-        <s v="Cholamandalam Financial Holdings Ltd."/>
-        <s v="Cholamandalam Investment and Finance Company Ltd."/>
-        <s v="Cipla Ltd."/>
-        <s v="City Union Bank Ltd."/>
-        <s v="Clean Science and Technology Ltd."/>
-        <s v="Coal India Ltd."/>
-        <s v="Cochin Shipyard Ltd."/>
-        <s v="Coforge Ltd."/>
-        <s v="Colgate Palmolive (India) Ltd."/>
-        <s v="Computer Age Management Services Ltd."/>
-        <s v="Container Corporation of India Ltd."/>
-        <s v="Coromandel International Ltd."/>
-        <s v="Craftsman Automation Ltd."/>
-        <s v="CreditAccess Grameen Ltd."/>
-        <s v="Crompton Greaves Consumer Electricals Ltd."/>
-        <s v="Cummins India Ltd."/>
-        <s v="Cyient Ltd."/>
-        <s v="DCM Shriram Ltd."/>
-        <s v="DLF Ltd."/>
-        <s v="Dabur India Ltd."/>
-        <s v="Dalmia Bharat Ltd."/>
-        <s v="Data Patterns (India) Ltd."/>
-        <s v="Deepak Fertilisers &amp; Petrochemicals Corp. Ltd."/>
-        <s v="Deepak Nitrite Ltd."/>
-        <s v="Delhivery Ltd."/>
-        <s v="Delta Corp Ltd."/>
-        <s v="Devyani International Ltd."/>
-        <s v="Divi's Laboratories Ltd."/>
-        <s v="Dixon Technologies (India) Ltd."/>
-        <s v="Dr. Lal Path Labs Ltd."/>
-        <s v="Dr. Reddy's Laboratories Ltd."/>
-        <s v="E.I.D. Parry (India) Ltd."/>
-        <s v="EIH Ltd."/>
-        <s v="EPL Ltd."/>
-        <s v="Easy Trip Planners Ltd."/>
-        <s v="Eicher Motors Ltd."/>
-        <s v="Elgi Equipments Ltd."/>
-        <s v="Emami Ltd."/>
-        <s v="Endurance Technologies Ltd."/>
-        <s v="Engineers India Ltd."/>
-        <s v="Equitas Small Finance Bank Ltd."/>
-        <s v="Eris Lifesciences Ltd."/>
-        <s v="Escorts Kubota Ltd."/>
-        <s v="Exide Industries Ltd."/>
-        <s v="FDC Ltd."/>
-        <s v="FSN E-Commerce Ventures Ltd."/>
-        <s v="Federal Bank Ltd."/>
-        <s v="Fertilisers and Chemicals Travancore Ltd."/>
-        <s v="Fine Organic Industries Ltd."/>
-        <s v="Finolex Cables Ltd."/>
-        <s v="Finolex Industries Ltd."/>
-        <s v="Firstsource Solutions Ltd."/>
-        <s v="Five-Star Business Finance Ltd."/>
-        <s v="Fortis Healthcare Ltd."/>
-        <s v="G R Infraprojects Ltd."/>
-        <s v="GAIL (India) Ltd."/>
-        <s v="GMM Pfaudler Ltd."/>
-        <s v="GMR Airports Infrastructure Ltd."/>
-        <s v="Galaxy Surfactants Ltd."/>
-        <s v="Garware Technical Fibres Ltd."/>
-        <s v="General Insurance Corporation of India"/>
-        <s v="Gland Pharma Ltd."/>
-        <s v="Glaxosmithkline Pharmaceuticals Ltd."/>
-        <s v="Glenmark Pharmaceuticals Ltd."/>
-        <s v="Global Health Ltd."/>
-        <s v="Go Fashion (India) Ltd."/>
-        <s v="Godfrey Phillips India Ltd."/>
-        <s v="Godrej Agrovet Ltd."/>
-        <s v="Godrej Consumer Products Ltd."/>
-        <s v="Godrej Industries Ltd."/>
-        <s v="Godrej Properties Ltd."/>
-        <s v="Granules India Ltd."/>
-        <s v="Graphite India Ltd."/>
-        <s v="Grasim Industries Ltd."/>
-        <s v="Great Eastern Shipping Co. Ltd."/>
-        <s v="Greenpanel Industries Ltd."/>
-        <s v="Grindwell Norton Ltd."/>
-        <s v="Gujarat Alkalies &amp; Chemicals Ltd."/>
-        <s v="Gujarat Ambuja Exports Ltd."/>
-        <s v="Gujarat Fluorochemicals Ltd."/>
-        <s v="Gujarat Gas Ltd."/>
-        <s v="Gujarat Narmada Valley Fertilizers and Chemicals Ltd."/>
-        <s v="Gujarat Pipavav Port Ltd."/>
-        <s v="Gujarat State Fertilizers &amp; Chemicals Ltd."/>
-        <s v="Gujarat State Petronet Ltd."/>
-        <s v="H.E.G. Ltd."/>
-        <s v="HCL Technologies Ltd."/>
-        <s v="HDFC Asset Management Company Ltd."/>
-        <s v="HDFC Bank Ltd."/>
-        <s v="HDFC Life Insurance Company Ltd."/>
-        <s v="HFCL Ltd."/>
-        <s v="HLE Glascoat Ltd."/>
-        <s v="Happiest Minds Technologies Ltd."/>
-        <s v="Havells India Ltd."/>
-        <s v="Hero MotoCorp Ltd."/>
-        <s v="Hikal Ltd."/>
-        <s v="Hindalco Industries Ltd."/>
-        <s v="Hinduja Global Solutions Ltd."/>
-        <s v="Hindustan Aeronautics Ltd."/>
-        <s v="Hindustan Copper Ltd."/>
-        <s v="Hindustan Petroleum Corporation Ltd."/>
-        <s v="Hindustan Unilever Ltd."/>
-        <s v="Hindustan Zinc Ltd."/>
-        <s v="Hitachi Energy India Ltd."/>
-        <s v="Home First Finance Company India Ltd."/>
-        <s v="Honeywell Automation India Ltd."/>
-        <s v="Housing &amp; Urban Development Corporation Ltd."/>
-        <s v="Housing Development Finance Corporation Ltd."/>
-        <s v="ICICI Bank Ltd."/>
-        <s v="ICICI Lombard General Insurance Company Ltd."/>
-        <s v="ICICI Prudential Life Insurance Company Ltd."/>
-        <s v="ICICI Securities Ltd."/>
-        <s v="IDBI Bank Ltd."/>
-        <s v="IDFC First Bank Ltd."/>
-        <s v="IDFC Ltd."/>
-        <s v="IFB Industries Ltd."/>
-        <s v="IIFL Finance Ltd."/>
-        <s v="IRB Infrastructure Developers Ltd."/>
-        <s v="ITC Ltd."/>
-        <s v="ITI Ltd."/>
-        <s v="India Cements Ltd."/>
-        <s v="Indiabulls Housing Finance Ltd."/>
-        <s v="Indiabulls Real Estate Ltd."/>
-        <s v="Indiamart Intermesh Ltd."/>
-        <s v="Indian Bank"/>
-        <s v="Indian Energy Exchange Ltd."/>
-        <s v="Indian Hotels Co. Ltd."/>
-        <s v="Indian Oil Corporation Ltd."/>
-        <s v="Indian Overseas Bank"/>
-        <s v="Indian Railway Catering And Tourism Corporation Ltd."/>
-        <s v="Indian Railway Finance Corporation Ltd."/>
-        <s v="Indigo Paints Ltd."/>
-        <s v="Indraprastha Gas Ltd."/>
-        <s v="Indus Towers Ltd."/>
-        <s v="IndusInd Bank Ltd."/>
-        <s v="Infibeam Avenues Ltd."/>
-        <s v="Info Edge (India) Ltd."/>
-        <s v="Infosys Ltd."/>
-        <s v="Ingersoll Rand (India) Ltd."/>
-        <s v="Intellect Design Arena Ltd."/>
-        <s v="InterGlobe Aviation Ltd."/>
-        <s v="Ipca Laboratories Ltd."/>
-        <s v="J.B. Chemicals &amp; Pharmaceuticals Ltd."/>
-        <s v="J.K. Cement Ltd."/>
-        <s v="JBM Auto Ltd."/>
-        <s v="JK Lakshmi Cement Ltd."/>
-        <s v="JK Paper Ltd."/>
-        <s v="JM Financial Ltd."/>
-        <s v="JSW Energy Ltd."/>
-        <s v="JSW Steel Ltd."/>
-        <s v="Jamna Auto Industries Ltd."/>
-        <s v="Jindal Stainless Ltd."/>
-        <s v="Jindal Steel &amp; Power Ltd."/>
-        <s v="Jindal Worldwide Ltd."/>
-        <s v="Jubilant Foodworks Ltd."/>
-        <s v="Jubilant Ingrevia Ltd."/>
-        <s v="Jubilant Pharmova Ltd."/>
-        <s v="Justdial Ltd."/>
-        <s v="Jyothy Labs Ltd."/>
-        <s v="K.P.R. Mill Ltd."/>
-        <s v="KEI Industries Ltd."/>
-        <s v="KNR Constructions Ltd."/>
-        <s v="KPIT Technologies Ltd."/>
-        <s v="KRBL Ltd."/>
-        <s v="KSB Ltd."/>
-        <s v="Kajaria Ceramics Ltd."/>
-        <s v="Kalpataru Power Transmission Ltd."/>
-        <s v="Kalyan Jewellers India Ltd."/>
-        <s v="Kansai Nerolac Paints Ltd."/>
-        <s v="Karur Vysya Bank Ltd."/>
-        <s v="Kec International Ltd."/>
-        <s v="Kennametal India Ltd."/>
-        <s v="Keystone Realtors Ltd."/>
-        <s v="Kfin Technologies Ltd."/>
-        <s v="Kotak Mahindra Bank Ltd."/>
-        <s v="Krishna Institute of Medical Sciences Ltd."/>
-        <s v="L&amp;T Finance Holdings Ltd."/>
-        <s v="L&amp;T Technology Services Ltd."/>
-        <s v="LIC Housing Finance Ltd."/>
-        <s v="LTIMindtree Ltd."/>
-        <s v="Lakshmi Machine Works Ltd."/>
-        <s v="Larsen &amp; Toubro Ltd."/>
-        <s v="Latent View Analytics Ltd."/>
-        <s v="Laurus Labs Ltd."/>
-        <s v="Laxmi Organic Industries Ltd."/>
-        <s v="Lemon Tree Hotels Ltd."/>
-        <s v="Life Insurance Corporation of India"/>
-        <s v="Linde India Ltd."/>
-        <s v="Lupin Ltd."/>
-        <s v="Lux Industries Ltd."/>
-        <s v="MMTC Ltd."/>
-        <s v="MRF Ltd."/>
-        <s v="MTAR Technologies Ltd."/>
-        <s v="Macrotech Developers Ltd."/>
-        <s v="Mahanagar Gas Ltd."/>
-        <s v="Mahindra &amp; Mahindra Financial Services Ltd."/>
-        <s v="Mahindra &amp; Mahindra Ltd."/>
-        <s v="Mahindra CIE Automotive Ltd."/>
-        <s v="Mahindra Holidays &amp; Resorts India Ltd."/>
-        <s v="Mahindra Lifespace Developers Ltd."/>
-        <s v="Mahindra Logistics Ltd."/>
-        <s v="Manappuram Finance Ltd."/>
-        <s v="Mangalore Refinery &amp; Petrochemicals Ltd."/>
-        <s v="Marico Ltd."/>
-        <s v="Maruti Suzuki India Ltd."/>
-        <s v="Mastek Ltd."/>
-        <s v="Max Financial Services Ltd."/>
-        <s v="Max Healthcare Institute Ltd."/>
-        <s v="Mazagoan Dock Shipbuilders Ltd."/>
-        <s v="Medplus Health Services Ltd."/>
-        <s v="Meghmani Finechem Ltd."/>
-        <s v="Metro Brands Ltd."/>
-        <s v="Metropolis Healthcare Ltd."/>
-        <s v="Motherson Sumi Wiring India Ltd."/>
-        <s v="Motilal Oswal Financial Services Ltd."/>
-        <s v="MphasiS Ltd."/>
-        <s v="Multi Commodity Exchange of India Ltd."/>
-        <s v="Muthoot Finance Ltd."/>
-        <s v="NATCO Pharma Ltd."/>
-        <s v="NBCC (India) Ltd."/>
-        <s v="NCC Ltd."/>
-        <s v="NHPC Ltd."/>
-        <s v="NLC India Ltd."/>
-        <s v="NMDC Ltd."/>
-        <s v="NMDC Steel Ltd."/>
-        <s v="NOCIL Ltd."/>
-        <s v="NTPC Ltd."/>
-        <s v="Narayana Hrudayalaya Ltd."/>
-        <s v="National Aluminium Co. Ltd."/>
-        <s v="Navin Fluorine International Ltd."/>
-        <s v="Nazara Technologies Ltd."/>
-        <s v="Nestle India Ltd."/>
-        <s v="Network18 Media &amp; Investments Ltd."/>
-        <s v="Nippon Life India Asset Management Ltd."/>
-        <s v="Nuvoco Vistas Corporation Ltd."/>
-        <s v="Oberoi Realty Ltd."/>
-        <s v="Oil &amp; Natural Gas Corporation Ltd."/>
-        <s v="Oil India Ltd."/>
-        <s v="Olectra Greentech Ltd."/>
-        <s v="One 97 Communications Ltd."/>
-        <s v="Oracle Financial Services Software Ltd."/>
-        <s v="Orient Electric Ltd."/>
-        <s v="PB Fintech Ltd."/>
-        <s v="PCBL Ltd."/>
-        <s v="PI Industries Ltd."/>
-        <s v="PNB Housing Finance Ltd."/>
-        <s v="PNC Infratech Ltd."/>
-        <s v="PVR INOX Ltd."/>
-        <s v="Page Industries Ltd."/>
-        <s v="Patanjali Foods Ltd."/>
-        <s v="Persistent Systems Ltd."/>
-        <s v="Petronet LNG Ltd."/>
-        <s v="Pfizer Ltd."/>
-        <s v="Phoenix Mills Ltd."/>
-        <s v="Pidilite Industries Ltd."/>
-        <s v="Piramal Enterprises Ltd."/>
-        <s v="Piramal Pharma Ltd."/>
-        <s v="Poly Medicure Ltd."/>
-        <s v="Polycab India Ltd."/>
-        <s v="Polyplex Corporation Ltd."/>
-        <s v="Poonawalla Fincorp Ltd."/>
-        <s v="Power Finance Corporation Ltd."/>
-        <s v="Power Grid Corporation of India Ltd."/>
-        <s v="Praj Industries Ltd."/>
-        <s v="Prestige Estates Projects Ltd."/>
-        <s v="Prince Pipes and Fittings Ltd."/>
-        <s v="Prism Johnson Ltd."/>
-        <s v="Procter &amp; Gamble Hygiene &amp; Health Care Ltd."/>
-        <s v="Punjab National Bank"/>
-        <s v="Quess Corp Ltd."/>
-        <s v="RBL Bank Ltd."/>
-        <s v="REC Ltd."/>
-        <s v="RHI MAGNESITA INDIA LTD."/>
-        <s v="RITES Ltd."/>
-        <s v="Radico Khaitan Ltd"/>
-        <s v="Rail Vikas Nigam Ltd."/>
-        <s v="Rain Industries Ltd"/>
-        <s v="Rainbow Childrens Medicare Ltd."/>
-        <s v="Rajesh Exports Ltd."/>
-        <s v="Rallis India Ltd."/>
-        <s v="Rashtriya Chemicals &amp; Fertilizers Ltd."/>
-        <s v="Ratnamani Metals &amp; Tubes Ltd."/>
-        <s v="RattanIndia Enterprises Ltd."/>
-        <s v="Raymond Ltd."/>
-        <s v="Redington Ltd."/>
-        <s v="Relaxo Footwears Ltd."/>
-        <s v="Reliance Industries Ltd."/>
-        <s v="Restaurant Brands Asia Ltd."/>
-        <s v="Rossari Biotech Ltd."/>
-        <s v="Route Mobile Ltd."/>
-        <s v="SBI Cards and Payment Services Ltd."/>
-        <s v="SBI Life Insurance Company Ltd."/>
-        <s v="SJVN Ltd."/>
-        <s v="SKF India Ltd."/>
-        <s v="SRF Ltd."/>
-        <s v="Samvardhana Motherson International Ltd."/>
-        <s v="Sanofi India Ltd."/>
-        <s v="Sapphire Foods India Ltd."/>
-        <s v="Schaeffler India Ltd."/>
-        <s v="Sharda Cropchem Ltd."/>
-        <s v="Shoppers Stop Ltd."/>
-        <s v="Shree Cement Ltd."/>
-        <s v="Shree Renuka Sugars Ltd."/>
-        <s v="Shriram Finance Ltd."/>
-        <s v="Shyam Metalics and Energy Ltd."/>
-        <s v="Siemens Ltd."/>
-        <s v="Sobha Ltd."/>
-        <s v="Solar Industries India Ltd."/>
-        <s v="Sona BLW Precision Forgings Ltd."/>
-        <s v="Sonata Software Ltd."/>
-        <s v="Star Health and Allied Insurance Company Ltd."/>
-        <s v="State Bank of India"/>
-        <s v="Steel Authority of India Ltd."/>
-        <s v="Sterling and Wilson Renewable Energy Ltd."/>
-        <s v="Sterlite Technologies Ltd."/>
-        <s v="Sumitomo Chemical India Ltd."/>
-        <s v="Sun Pharma Advanced Research Company Ltd."/>
-        <s v="Sun Pharmaceutical Industries Ltd."/>
-        <s v="Sun TV Network Ltd."/>
-        <s v="Sundaram Finance Ltd."/>
-        <s v="Sundram Fasteners Ltd."/>
-        <s v="Sunteck Realty Ltd."/>
-        <s v="Suprajit Engineering Ltd."/>
-        <s v="Supreme Industries Ltd."/>
-        <s v="Suven Pharmaceuticals Ltd."/>
-        <s v="Suzlon Energy Ltd."/>
-        <s v="Swan Energy Ltd."/>
-        <s v="Syngene International Ltd."/>
-        <s v="TCI Express Ltd."/>
-        <s v="TCNS Clothing Co. Ltd."/>
-        <s v="TTK Prestige Ltd."/>
-        <s v="TV18 Broadcast Ltd."/>
-        <s v="TVS Motor Company Ltd."/>
-        <s v="Tamilnad Mercantile Bank Ltd."/>
-        <s v="Tanla Platforms Ltd."/>
-        <s v="Tata Chemicals Ltd."/>
-        <s v="Tata Communications Ltd."/>
-        <s v="Tata Consultancy Services Ltd."/>
-        <s v="Tata Consumer Products Ltd."/>
-        <s v="Tata Elxsi Ltd."/>
-        <s v="Tata Investment Corporation Ltd."/>
-        <s v="Tata Motors Ltd DVR"/>
-        <s v="Tata Motors Ltd."/>
-        <s v="Tata Power Co. Ltd."/>
-        <s v="Tata Steel Ltd."/>
-        <s v="Tata Teleservices (Maharashtra) Ltd."/>
-        <s v="Teamlease Services Ltd."/>
-        <s v="Tech Mahindra Ltd."/>
-        <s v="Tejas Networks Ltd."/>
-        <s v="The New India Assurance Company Ltd."/>
-        <s v="The Ramco Cements Ltd."/>
-        <s v="Thermax Ltd."/>
-        <s v="Timken India Ltd."/>
-        <s v="Titan Company Ltd."/>
-        <s v="Torrent Pharmaceuticals Ltd."/>
-        <s v="Torrent Power Ltd."/>
-        <s v="Transport Corporation of India Ltd."/>
-        <s v="Trent Ltd."/>
-        <s v="Trident Ltd."/>
-        <s v="Triveni Engineering &amp; Industries Ltd."/>
-        <s v="Triveni Turbine Ltd."/>
-        <s v="Tube Investments of India Ltd."/>
-        <s v="UCO Bank"/>
-        <s v="UFLEX Ltd."/>
-        <s v="UNO Minda Ltd."/>
-        <s v="UPL Ltd."/>
-        <s v="UTI Asset Management Company Ltd."/>
-        <s v="UltraTech Cement Ltd."/>
-        <s v="Union Bank of India"/>
-        <s v="United Breweries Ltd."/>
-        <s v="United Spirits Ltd."/>
-        <s v="V-Guard Industries Ltd."/>
-        <s v="V-Mart Retail Ltd."/>
-        <s v="V.I.P. Industries Ltd."/>
-        <s v="Vaibhav Global Ltd."/>
-        <s v="Vardhman Textiles Ltd."/>
-        <s v="Varroc Engineering Ltd."/>
-        <s v="Varun Beverages Ltd."/>
-        <s v="Vedant Fashions Ltd."/>
-        <s v="Vedanta Ltd."/>
-        <s v="Vijaya Diagnostic Centre Ltd."/>
-        <s v="Vinati Organics Ltd."/>
-        <s v="Vodafone Idea Ltd."/>
-        <s v="Voltas Ltd."/>
-        <s v="Welspun Corp Ltd."/>
-        <s v="Welspun India Ltd."/>
-        <s v="Westlife Development Ltd."/>
-        <s v="Whirlpool of India Ltd."/>
-        <s v="Wipro Ltd."/>
-        <s v="Yes Bank Ltd."/>
-        <s v="ZF Commercial Vehicle Control Systems India Ltd."/>
-        <s v="Zee Entertainment Enterprises Ltd."/>
-        <s v="Zensar Technolgies Ltd."/>
-        <s v="Zomato Ltd."/>
-        <s v="Zydus Lifesciences Ltd."/>
-        <s v="Zydus Wellness Ltd."/>
-        <s v="eClerx Services Ltd."/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Symbol" numFmtId="0">
-      <sharedItems containsBlank="1" count="502">
-        <s v="360ONE"/>
-        <s v="3MINDIA"/>
-        <s v="ABB"/>
-        <s v="ACC"/>
-        <s v="AIAENG"/>
-        <s v="APLAPOLLO"/>
-        <s v="AUBANK"/>
-        <s v="AARTIDRUGS"/>
-        <s v="AARTIIND"/>
-        <s v="AAVAS"/>
-        <s v="ABBOTINDIA"/>
-        <s v="ADANIENT"/>
-        <s v="ADANIGREEN"/>
-        <s v="ADANIPORTS"/>
-        <s v="ADANIPOWER"/>
-        <s v="ATGL"/>
-        <s v="ADANITRANS"/>
-        <s v="AWL"/>
-        <s v="ABCAPITAL"/>
-        <s v="ABFRL"/>
-        <s v="AEGISCHEM"/>
-        <s v="AETHER"/>
-        <s v="AFFLE"/>
-        <s v="AJANTPHARM"/>
-        <s v="APLLTD"/>
-        <s v="ALKEM"/>
-        <s v="ALKYLAMINE"/>
-        <s v="AMARAJABAT"/>
-        <s v="AMBER"/>
-        <s v="AMBUJACEM"/>
-        <s v="ANGELONE"/>
-        <s v="ANURAS"/>
-        <s v="APARINDS"/>
-        <s v="APOLLOHOSP"/>
-        <s v="APOLLOTYRE"/>
-        <s v="APTUS"/>
-        <s v="ACI"/>
-        <s v="ASAHIINDIA"/>
-        <s v="ASHOKLEY"/>
-        <s v="ASIANPAINT"/>
-        <s v="ASTERDM"/>
-        <s v="ASTRAL"/>
-        <s v="ATUL"/>
-        <s v="AUROPHARMA"/>
-        <s v="AVANTIFEED"/>
-        <s v="DMART"/>
-        <s v="AXISBANK"/>
-        <s v="BASF"/>
-        <s v="BEML"/>
-        <s v="BLS"/>
-        <s v="BSE"/>
-        <s v="BAJAJ-AUTO"/>
-        <s v="BAJFINANCE"/>
-        <s v="BAJAJFINSV"/>
-        <s v="BAJAJHLDNG"/>
-        <s v="BALAMINES"/>
-        <s v="BALKRISIND"/>
-        <s v="BALRAMCHIN"/>
-        <s v="BANDHANBNK"/>
-        <s v="BANKBARODA"/>
-        <s v="BANKINDIA"/>
-        <s v="MAHABANK"/>
-        <s v="BATAINDIA"/>
-        <s v="BAYERCROP"/>
-        <s v="BERGEPAINT"/>
-        <s v="BDL"/>
-        <s v="BEL"/>
-        <s v="BHARATFORG"/>
-        <s v="BHEL"/>
-        <s v="BPCL"/>
-        <s v="BHARTIARTL"/>
-        <s v="BIKAJI"/>
-        <s v="BIOCON"/>
-        <s v="BIRLACORPN"/>
-        <s v="BSOFT"/>
-        <s v="BLUEDART"/>
-        <s v="BLUESTARCO"/>
-        <s v="BBTC"/>
-        <s v="BORORENEW"/>
-        <s v="BOSCHLTD"/>
-        <s v="BRIGADE"/>
-        <s v="BCG"/>
-        <s v="BRITANNIA"/>
-        <s v="MAPMYINDIA"/>
-        <s v="CCL"/>
-        <s v="CESC"/>
-        <s v="CGPOWER"/>
-        <s v="CRISIL"/>
-        <s v="CSBBANK"/>
-        <s v="CAMPUS"/>
-        <s v="CANFINHOME"/>
-        <s v="CANBK"/>
-        <s v="CGCL"/>
-        <s v="CARBORUNIV"/>
-        <s v="CASTROLIND"/>
-        <s v="CEATLTD"/>
-        <s v="CENTRALBK"/>
-        <s v="CDSL"/>
-        <s v="CENTURYPLY"/>
-        <s v="CENTURYTEX"/>
-        <s v="CERA"/>
-        <s v="CHALET"/>
-        <s v="CHAMBLFERT"/>
-        <s v="CHEMPLASTS"/>
-        <s v="CHOLAHLDNG"/>
-        <s v="CHOLAFIN"/>
-        <s v="CIPLA"/>
-        <s v="CUB"/>
-        <s v="CLEAN"/>
-        <s v="COALINDIA"/>
-        <s v="COCHINSHIP"/>
-        <s v="COFORGE"/>
-        <s v="COLPAL"/>
-        <s v="CAMS"/>
-        <s v="CONCOR"/>
-        <s v="COROMANDEL"/>
-        <s v="CRAFTSMAN"/>
-        <s v="CREDITACC"/>
-        <s v="CROMPTON"/>
-        <s v="CUMMINSIND"/>
-        <s v="CYIENT"/>
-        <s v="DCMSHRIRAM"/>
-        <s v="DLF"/>
-        <s v="DABUR"/>
-        <s v="DALBHARAT"/>
-        <s v="DATAPATTNS"/>
-        <s v="DEEPAKFERT"/>
-        <s v="DEEPAKNTR"/>
-        <s v="DELHIVERY"/>
-        <s v="DELTACORP"/>
-        <s v="DEVYANI"/>
-        <s v="DIVISLAB"/>
-        <s v="DIXON"/>
-        <s v="LALPATHLAB"/>
-        <s v="DRREDDY"/>
-        <s v="EIDPARRY"/>
-        <s v="EIHOTEL"/>
-        <s v="EPL"/>
-        <s v="EASEMYTRIP"/>
-        <s v="EICHERMOT"/>
-        <s v="ELGIEQUIP"/>
-        <s v="EMAMILTD"/>
-        <s v="ENDURANCE"/>
-        <s v="ENGINERSIN"/>
-        <s v="EQUITASBNK"/>
-        <s v="ERIS"/>
-        <s v="ESCORTS"/>
-        <s v="EXIDEIND"/>
-        <s v="FDC"/>
-        <s v="NYKAA"/>
-        <s v="FEDERALBNK"/>
-        <s v="FACT"/>
-        <s v="FINEORG"/>
-        <s v="FINCABLES"/>
-        <s v="FINPIPE"/>
-        <s v="FSL"/>
-        <s v="FIVESTAR"/>
-        <s v="FORTIS"/>
-        <s v="GRINFRA"/>
-        <s v="GAIL"/>
-        <s v="GMMPFAUDLR"/>
-        <s v="GMRINFRA"/>
-        <s v="GALAXYSURF"/>
-        <s v="GARFIBRES"/>
-        <s v="GICRE"/>
-        <s v="GLAND"/>
-        <s v="GLAXO"/>
-        <s v="GLENMARK"/>
-        <s v="MEDANTA"/>
-        <s v="GOCOLORS"/>
-        <s v="GODFRYPHLP"/>
-        <s v="GODREJAGRO"/>
-        <s v="GODREJCP"/>
-        <s v="GODREJIND"/>
-        <s v="GODREJPROP"/>
-        <s v="GRANULES"/>
-        <s v="GRAPHITE"/>
-        <s v="GRASIM"/>
-        <s v="GESHIP"/>
-        <s v="GREENPANEL"/>
-        <s v="GRINDWELL"/>
-        <s v="GUJALKALI"/>
-        <s v="GAEL"/>
-        <s v="FLUOROCHEM"/>
-        <s v="GUJGASLTD"/>
-        <s v="GNFC"/>
-        <s v="GPPL"/>
-        <s v="GSFC"/>
-        <s v="GSPL"/>
-        <s v="HEG"/>
-        <s v="HCLTECH"/>
-        <s v="HDFCAMC"/>
-        <s v="HDFCBANK"/>
-        <s v="HDFCLIFE"/>
-        <s v="HFCL"/>
-        <s v="HLEGLAS"/>
-        <s v="HAPPSTMNDS"/>
-        <s v="HAVELLS"/>
-        <s v="HEROMOTOCO"/>
-        <s v="HIKAL"/>
-        <s v="HINDALCO"/>
-        <s v="HGS"/>
-        <s v="HAL"/>
-        <s v="HINDCOPPER"/>
-        <s v="HINDPETRO"/>
-        <s v="HINDUNILVR"/>
-        <s v="HINDZINC"/>
-        <s v="POWERINDIA"/>
-        <s v="HOMEFIRST"/>
-        <s v="HONAUT"/>
-        <s v="HUDCO"/>
-        <s v="HDFC"/>
-        <s v="ICICIBANK"/>
-        <s v="ICICIGI"/>
-        <s v="ICICIPRULI"/>
-        <s v="ISEC"/>
-        <s v="IDBI"/>
-        <s v="IDFCFIRSTB"/>
-        <s v="IDFC"/>
-        <s v="IFBIND"/>
-        <s v="IIFL"/>
-        <s v="IRB"/>
-        <s v="ITC"/>
-        <s v="ITI"/>
-        <s v="INDIACEM"/>
-        <s v="IBULHSGFIN"/>
-        <s v="IBREALEST"/>
-        <s v="INDIAMART"/>
-        <s v="INDIANB"/>
-        <s v="IEX"/>
-        <s v="INDHOTEL"/>
-        <s v="IOC"/>
-        <s v="IOB"/>
-        <s v="IRCTC"/>
-        <s v="IRFC"/>
-        <s v="INDIGOPNTS"/>
-        <s v="IGL"/>
-        <s v="INDUSTOWER"/>
-        <s v="INDUSINDBK"/>
-        <s v="INFIBEAM"/>
-        <s v="NAUKRI"/>
-        <s v="INFY"/>
-        <s v="INGERRAND"/>
-        <s v="INTELLECT"/>
-        <s v="INDIGO"/>
-        <s v="IPCALAB"/>
-        <s v="JBCHEPHARM"/>
-        <s v="JKCEMENT"/>
-        <s v="JBMA"/>
-        <s v="JKLAKSHMI"/>
-        <s v="JKPAPER"/>
-        <s v="JMFINANCIL"/>
-        <s v="JSWENERGY"/>
-        <s v="JSWSTEEL"/>
-        <s v="JAMNAAUTO"/>
-        <s v="JSL"/>
-        <s v="JINDALSTEL"/>
-        <s v="JINDWORLD"/>
-        <s v="JUBLFOOD"/>
-        <s v="JUBLINGREA"/>
-        <s v="JUBLPHARMA"/>
-        <s v="JUSTDIAL"/>
-        <s v="JYOTHYLAB"/>
-        <s v="KPRMILL"/>
-        <s v="KEI"/>
-        <s v="KNRCON"/>
-        <s v="KPITTECH"/>
-        <s v="KRBL"/>
-        <s v="KSB"/>
-        <s v="KAJARIACER"/>
-        <s v="KALPATPOWR"/>
-        <s v="KALYANKJIL"/>
-        <s v="KANSAINER"/>
-        <s v="KARURVYSYA"/>
-        <s v="KEC"/>
-        <s v="KENNAMET"/>
-        <s v="RUSTOMJEE"/>
-        <s v="KFINTECH"/>
-        <s v="KOTAKBANK"/>
-        <s v="KIMS"/>
-        <s v="L&amp;TFH"/>
-        <s v="LTTS"/>
-        <s v="LICHSGFIN"/>
-        <s v="LTIM"/>
-        <s v="LAXMIMACH"/>
-        <s v="LT"/>
-        <s v="LATENTVIEW"/>
-        <s v="LAURUSLABS"/>
-        <s v="LXCHEM"/>
-        <s v="LEMONTREE"/>
-        <s v="LICI"/>
-        <s v="LINDEINDIA"/>
-        <s v="LUPIN"/>
-        <s v="LUXIND"/>
-        <s v="MMTC"/>
-        <s v="MRF"/>
-        <s v="MTARTECH"/>
-        <s v="LODHA"/>
-        <s v="MGL"/>
-        <s v="M&amp;MFIN"/>
-        <s v="M&amp;M"/>
-        <s v="MAHINDCIE"/>
-        <s v="MHRIL"/>
-        <s v="MAHLIFE"/>
-        <s v="MAHLOG"/>
-        <s v="MANAPPURAM"/>
-        <s v="MRPL"/>
-        <s v="MARICO"/>
-        <s v="MARUTI"/>
-        <s v="MASTEK"/>
-        <s v="MFSL"/>
-        <s v="MAXHEALTH"/>
-        <s v="MAZDOCK"/>
-        <s v="MEDPLUS"/>
-        <s v="MFL"/>
-        <s v="METROBRAND"/>
-        <s v="METROPOLIS"/>
-        <s v="MSUMI"/>
-        <s v="MOTILALOFS"/>
-        <s v="MPHASIS"/>
-        <s v="MCX"/>
-        <s v="MUTHOOTFIN"/>
-        <s v="NATCOPHARM"/>
-        <s v="NBCC"/>
-        <s v="NCC"/>
-        <s v="NHPC"/>
-        <s v="NLCINDIA"/>
-        <s v="NMDC"/>
-        <s v="NSLNISP"/>
-        <s v="NOCIL"/>
-        <s v="NTPC"/>
-        <s v="NH"/>
-        <s v="NATIONALUM"/>
-        <s v="NAVINFLUOR"/>
-        <s v="NAZARA"/>
-        <s v="NESTLEIND"/>
-        <s v="NETWORK18"/>
-        <s v="NAM-INDIA"/>
-        <s v="NUVOCO"/>
-        <s v="OBEROIRLTY"/>
-        <s v="ONGC"/>
-        <s v="OIL"/>
-        <s v="OLECTRA"/>
-        <s v="PAYTM"/>
-        <s v="OFSS"/>
-        <s v="ORIENTELEC"/>
-        <s v="POLICYBZR"/>
-        <s v="PCBL"/>
-        <s v="PIIND"/>
-        <s v="PNBHOUSING"/>
-        <s v="PNCINFRA"/>
-        <s v="PVRINOX"/>
-        <s v="PAGEIND"/>
-        <s v="PATANJALI"/>
-        <s v="PERSISTENT"/>
-        <s v="PETRONET"/>
-        <s v="PFIZER"/>
-        <s v="PHOENIXLTD"/>
-        <s v="PIDILITIND"/>
-        <s v="PEL"/>
-        <s v="PPLPHARMA"/>
-        <s v="POLYMED"/>
-        <s v="POLYCAB"/>
-        <s v="POLYPLEX"/>
-        <s v="POONAWALLA"/>
-        <s v="PFC"/>
-        <s v="POWERGRID"/>
-        <s v="PRAJIND"/>
-        <s v="PRESTIGE"/>
-        <s v="PRINCEPIPE"/>
-        <s v="PRSMJOHNSN"/>
-        <s v="PGHH"/>
-        <s v="PNB"/>
-        <s v="QUESS"/>
-        <s v="RBLBANK"/>
-        <s v="RECLTD"/>
-        <s v="RHIM"/>
-        <s v="RITES"/>
-        <s v="RADICO"/>
-        <s v="RVNL"/>
-        <s v="RAIN"/>
-        <s v="RAINBOW"/>
-        <s v="RAJESHEXPO"/>
-        <s v="RALLIS"/>
-        <s v="RCF"/>
-        <s v="RATNAMANI"/>
-        <s v="RTNINDIA"/>
-        <s v="RAYMOND"/>
-        <s v="REDINGTON"/>
-        <s v="RELAXO"/>
-        <s v="RELIANCE"/>
-        <s v="RBA"/>
-        <s v="ROSSARI"/>
-        <s v="ROUTE"/>
-        <s v="SBICARD"/>
-        <s v="SBILIFE"/>
-        <s v="SJVN"/>
-        <s v="SKFINDIA"/>
-        <s v="SRF"/>
-        <s v="MOTHERSON"/>
-        <s v="SANOFI"/>
-        <s v="SAPPHIRE"/>
-        <s v="SCHAEFFLER"/>
-        <s v="SHARDACROP"/>
-        <s v="SHOPERSTOP"/>
-        <s v="SHREECEM"/>
-        <s v="RENUKA"/>
-        <s v="SHRIRAMFIN"/>
-        <s v="SHYAMMETL"/>
-        <s v="SIEMENS"/>
-        <s v="SOBHA"/>
-        <s v="SOLARINDS"/>
-        <s v="SONACOMS"/>
-        <s v="SONATSOFTW"/>
-        <s v="STARHEALTH"/>
-        <s v="SBIN"/>
-        <s v="SAIL"/>
-        <s v="SWSOLAR"/>
-        <s v="STLTECH"/>
-        <s v="SUMICHEM"/>
-        <s v="SPARC"/>
-        <s v="SUNPHARMA"/>
-        <s v="SUNTV"/>
-        <s v="SUNDARMFIN"/>
-        <s v="SUNDRMFAST"/>
-        <s v="SUNTECK"/>
-        <s v="SUPRAJIT"/>
-        <s v="SUPREMEIND"/>
-        <s v="SUVENPHAR"/>
-        <s v="SUZLON"/>
-        <s v="SWANENERGY"/>
-        <s v="SYNGENE"/>
-        <s v="TCIEXP"/>
-        <s v="TCNSBRANDS"/>
-        <s v="TTKPRESTIG"/>
-        <s v="TV18BRDCST"/>
-        <s v="TVSMOTOR"/>
-        <s v="TMB"/>
-        <s v="TANLA"/>
-        <s v="TATACHEM"/>
-        <s v="TATACOMM"/>
-        <s v="TCS"/>
-        <s v="TATACONSUM"/>
-        <s v="TATAELXSI"/>
-        <s v="TATAINVEST"/>
-        <s v="TATAMTRDVR"/>
-        <s v="TATAMOTORS"/>
-        <s v="TATAPOWER"/>
-        <s v="TATASTEEL"/>
-        <s v="TTML"/>
-        <s v="TEAMLEASE"/>
-        <s v="TECHM"/>
-        <s v="TEJASNET"/>
-        <s v="NIACL"/>
-        <s v="RAMCOCEM"/>
-        <s v="THERMAX"/>
-        <s v="TIMKEN"/>
-        <s v="TITAN"/>
-        <s v="TORNTPHARM"/>
-        <s v="TORNTPOWER"/>
-        <s v="TCI"/>
-        <s v="TRENT"/>
-        <s v="TRIDENT"/>
-        <s v="TRIVENI"/>
-        <s v="TRITURBINE"/>
-        <s v="TIINDIA"/>
-        <s v="UCOBANK"/>
-        <s v="UFLEX"/>
-        <s v="UNOMINDA"/>
-        <s v="UPL"/>
-        <s v="UTIAMC"/>
-        <s v="ULTRACEMCO"/>
-        <s v="UNIONBANK"/>
-        <s v="UBL"/>
-        <s v="MCDOWELL-N"/>
-        <s v="VGUARD"/>
-        <s v="VMART"/>
-        <s v="VIPIND"/>
-        <s v="VAIBHAVGBL"/>
-        <s v="VTL"/>
-        <s v="VARROC"/>
-        <s v="VBL"/>
-        <s v="MANYAVAR"/>
-        <s v="VEDL"/>
-        <s v="VIJAYA"/>
-        <s v="VINATIORGA"/>
-        <s v="IDEA"/>
-        <s v="VOLTAS"/>
-        <s v="WELCORP"/>
-        <s v="WELSPUNIND"/>
-        <s v="WESTLIFE"/>
-        <s v="WHIRLPOOL"/>
-        <s v="WIPRO"/>
-        <s v="YESBANK"/>
-        <s v="ZFCVINDIA"/>
-        <s v="ZEEL"/>
-        <s v="ZENSARTECH"/>
-        <s v="ZOMATO"/>
-        <s v="ZYDUSLIFE"/>
-        <s v="ZYDUSWELL"/>
-        <s v="ECLERX"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Industry" numFmtId="0">
-      <sharedItems containsBlank="1" count="22">
-        <s v="Financial Services"/>
-        <s v="Diversified"/>
-        <s v="Capital Goods"/>
-        <s v="Construction Materials"/>
-        <s v="Healthcare"/>
-        <s v="Chemicals"/>
-        <s v="Metals &amp; Mining"/>
-        <s v="Power"/>
-        <s v="Services"/>
-        <s v="Oil Gas &amp; Consumable Fuels"/>
-        <s v="Fast Moving Consumer Goods"/>
-        <s v="Consumer Services"/>
-        <s v="Information Technology"/>
-        <s v="Automobile and Auto Components"/>
-        <s v="Consumer Durables"/>
-        <s v="Telecommunication"/>
-        <s v="Realty"/>
-        <s v="Forest Materials"/>
-        <s v="Construction"/>
-        <s v="Textiles"/>
-        <s v="Media Entertainment &amp; Publication"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition pivotCacheId="1"/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" count="502">
-  <r>
-    <x v="0"/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="1"/>
-    <x v="1"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="2"/>
-    <x v="2"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="3"/>
-    <x v="3"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="4"/>
-    <x v="4"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="5"/>
-    <x v="5"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="6"/>
-    <x v="6"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="7"/>
-    <x v="7"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="8"/>
-    <x v="8"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="9"/>
-    <x v="9"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="10"/>
-    <x v="10"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="11"/>
-    <x v="11"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="12"/>
-    <x v="12"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="13"/>
-    <x v="13"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="14"/>
-    <x v="14"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="15"/>
-    <x v="15"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="16"/>
-    <x v="16"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="17"/>
-    <x v="17"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="18"/>
-    <x v="18"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="19"/>
-    <x v="19"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="20"/>
-    <x v="20"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="21"/>
-    <x v="21"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="22"/>
-    <x v="22"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="23"/>
-    <x v="23"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="24"/>
-    <x v="24"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="25"/>
-    <x v="25"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="26"/>
-    <x v="26"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="27"/>
-    <x v="27"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="28"/>
-    <x v="28"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="29"/>
-    <x v="29"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="30"/>
-    <x v="30"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="31"/>
-    <x v="31"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="32"/>
-    <x v="32"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="33"/>
-    <x v="33"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="34"/>
-    <x v="34"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="35"/>
-    <x v="35"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="36"/>
-    <x v="36"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="37"/>
-    <x v="37"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="38"/>
-    <x v="38"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="39"/>
-    <x v="39"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="40"/>
-    <x v="40"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="41"/>
-    <x v="41"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="42"/>
-    <x v="42"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="43"/>
-    <x v="43"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="44"/>
-    <x v="44"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="45"/>
-    <x v="45"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="46"/>
-    <x v="46"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="47"/>
-    <x v="47"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="48"/>
-    <x v="48"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="49"/>
-    <x v="49"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="50"/>
-    <x v="50"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="51"/>
-    <x v="51"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="52"/>
-    <x v="52"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="53"/>
-    <x v="53"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="54"/>
-    <x v="54"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="55"/>
-    <x v="55"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="56"/>
-    <x v="56"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="57"/>
-    <x v="57"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="58"/>
-    <x v="58"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="59"/>
-    <x v="59"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="60"/>
-    <x v="60"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="61"/>
-    <x v="61"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="62"/>
-    <x v="62"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="63"/>
-    <x v="63"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="64"/>
-    <x v="64"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="65"/>
-    <x v="65"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="66"/>
-    <x v="66"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="67"/>
-    <x v="67"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="68"/>
-    <x v="68"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="69"/>
-    <x v="69"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="70"/>
-    <x v="70"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="71"/>
-    <x v="71"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="72"/>
-    <x v="72"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="73"/>
-    <x v="73"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="74"/>
-    <x v="74"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="75"/>
-    <x v="75"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="76"/>
-    <x v="76"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="77"/>
-    <x v="77"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="78"/>
-    <x v="78"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="79"/>
-    <x v="79"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="80"/>
-    <x v="80"/>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="81"/>
-    <x v="81"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="82"/>
-    <x v="82"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="83"/>
-    <x v="83"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="84"/>
-    <x v="84"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="85"/>
-    <x v="85"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="86"/>
-    <x v="86"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="87"/>
-    <x v="87"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="88"/>
-    <x v="88"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="89"/>
-    <x v="89"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="90"/>
-    <x v="90"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="91"/>
-    <x v="91"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="92"/>
-    <x v="92"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="93"/>
-    <x v="93"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="94"/>
-    <x v="94"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="95"/>
-    <x v="95"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="96"/>
-    <x v="96"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="97"/>
-    <x v="97"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="98"/>
-    <x v="98"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="99"/>
-    <x v="99"/>
-    <x v="17"/>
-  </r>
-  <r>
-    <x v="100"/>
-    <x v="100"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="101"/>
-    <x v="101"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="102"/>
-    <x v="102"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="103"/>
-    <x v="103"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="104"/>
-    <x v="104"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="105"/>
-    <x v="105"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="106"/>
-    <x v="106"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="107"/>
-    <x v="107"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="108"/>
-    <x v="108"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="109"/>
-    <x v="109"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="110"/>
-    <x v="110"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="111"/>
-    <x v="111"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="112"/>
-    <x v="112"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="113"/>
-    <x v="113"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="114"/>
-    <x v="114"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="115"/>
-    <x v="115"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="116"/>
-    <x v="116"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="117"/>
-    <x v="117"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="118"/>
-    <x v="118"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="119"/>
-    <x v="119"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="120"/>
-    <x v="120"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="121"/>
-    <x v="121"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="122"/>
-    <x v="122"/>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="123"/>
-    <x v="123"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="124"/>
-    <x v="124"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="125"/>
-    <x v="125"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="126"/>
-    <x v="126"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="127"/>
-    <x v="127"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="128"/>
-    <x v="128"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="129"/>
-    <x v="129"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="130"/>
-    <x v="130"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="131"/>
-    <x v="131"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="132"/>
-    <x v="132"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="133"/>
-    <x v="133"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="134"/>
-    <x v="134"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="135"/>
-    <x v="135"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="136"/>
-    <x v="136"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="137"/>
-    <x v="137"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="138"/>
-    <x v="138"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="139"/>
-    <x v="139"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="140"/>
-    <x v="140"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="141"/>
-    <x v="141"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="142"/>
-    <x v="142"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="143"/>
-    <x v="143"/>
-    <x v="18"/>
-  </r>
-  <r>
-    <x v="144"/>
-    <x v="144"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="145"/>
-    <x v="145"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="146"/>
-    <x v="146"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="147"/>
-    <x v="147"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="148"/>
-    <x v="148"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="149"/>
-    <x v="149"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="150"/>
-    <x v="150"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="151"/>
-    <x v="151"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="152"/>
-    <x v="152"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="153"/>
-    <x v="153"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="154"/>
-    <x v="154"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="155"/>
-    <x v="155"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="156"/>
-    <x v="156"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="157"/>
-    <x v="157"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="158"/>
-    <x v="158"/>
-    <x v="18"/>
-  </r>
-  <r>
-    <x v="159"/>
-    <x v="159"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="160"/>
-    <x v="160"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="161"/>
-    <x v="161"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="162"/>
-    <x v="162"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="163"/>
-    <x v="163"/>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="164"/>
-    <x v="164"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="165"/>
-    <x v="165"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="166"/>
-    <x v="166"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="167"/>
-    <x v="167"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="168"/>
-    <x v="168"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="169"/>
-    <x v="169"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="170"/>
-    <x v="170"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="171"/>
-    <x v="171"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="172"/>
-    <x v="172"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="173"/>
-    <x v="173"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <x v="174"/>
-    <x v="174"/>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="175"/>
-    <x v="175"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="176"/>
-    <x v="176"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="177"/>
-    <x v="177"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="178"/>
-    <x v="178"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="179"/>
-    <x v="179"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="180"/>
-    <x v="180"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="181"/>
-    <x v="181"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="182"/>
-    <x v="182"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="183"/>
-    <x v="183"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="184"/>
-    <x v="184"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="185"/>
-    <x v="185"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="186"/>
-    <x v="186"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="187"/>
-    <x v="187"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="188"/>
-    <x v="188"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="189"/>
-    <x v="189"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="190"/>
-    <x v="190"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="191"/>
-    <x v="191"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="192"/>
-    <x v="192"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="193"/>
-    <x v="193"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="194"/>
-    <x v="194"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="195"/>
-    <x v="195"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="196"/>
-    <x v="196"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="197"/>
-    <x v="197"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="198"/>
-    <x v="198"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="199"/>
-    <x v="199"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="200"/>
-    <x v="200"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="201"/>
-    <x v="201"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="202"/>
-    <x v="202"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="203"/>
-    <x v="203"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="204"/>
-    <x v="204"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="205"/>
-    <x v="205"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="206"/>
-    <x v="206"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="207"/>
-    <x v="207"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="208"/>
-    <x v="208"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="209"/>
-    <x v="209"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="210"/>
-    <x v="210"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="211"/>
-    <x v="211"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="212"/>
-    <x v="212"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="213"/>
-    <x v="213"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="214"/>
-    <x v="214"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="215"/>
-    <x v="215"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="216"/>
-    <x v="216"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="217"/>
-    <x v="217"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="218"/>
-    <x v="218"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="219"/>
-    <x v="219"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="220"/>
-    <x v="220"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="221"/>
-    <x v="221"/>
-    <x v="18"/>
-  </r>
-  <r>
-    <x v="222"/>
-    <x v="222"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="223"/>
-    <x v="223"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="224"/>
-    <x v="224"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="225"/>
-    <x v="225"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="226"/>
-    <x v="226"/>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="227"/>
-    <x v="227"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="228"/>
-    <x v="228"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="229"/>
-    <x v="229"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="230"/>
-    <x v="230"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="231"/>
-    <x v="231"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="232"/>
-    <x v="232"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="233"/>
-    <x v="233"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="234"/>
-    <x v="234"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="235"/>
-    <x v="235"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="236"/>
-    <x v="236"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="237"/>
-    <x v="237"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="238"/>
-    <x v="238"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="239"/>
-    <x v="239"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="240"/>
-    <x v="240"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="241"/>
-    <x v="241"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="242"/>
-    <x v="242"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="243"/>
-    <x v="243"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="244"/>
-    <x v="244"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="245"/>
-    <x v="245"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="246"/>
-    <x v="246"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="247"/>
-    <x v="247"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="248"/>
-    <x v="248"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="249"/>
-    <x v="249"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="250"/>
-    <x v="250"/>
-    <x v="17"/>
-  </r>
-  <r>
-    <x v="251"/>
-    <x v="251"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="252"/>
-    <x v="252"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="253"/>
-    <x v="253"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="254"/>
-    <x v="254"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="255"/>
-    <x v="255"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="256"/>
-    <x v="256"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="257"/>
-    <x v="257"/>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="258"/>
-    <x v="258"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="259"/>
-    <x v="259"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="260"/>
-    <x v="260"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="261"/>
-    <x v="261"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="262"/>
-    <x v="262"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="263"/>
-    <x v="263"/>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="264"/>
-    <x v="264"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="265"/>
-    <x v="265"/>
-    <x v="18"/>
-  </r>
-  <r>
-    <x v="266"/>
-    <x v="266"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="267"/>
-    <x v="267"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="268"/>
-    <x v="268"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="269"/>
-    <x v="269"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="270"/>
-    <x v="270"/>
-    <x v="18"/>
-  </r>
-  <r>
-    <x v="271"/>
-    <x v="271"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="272"/>
-    <x v="272"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="273"/>
-    <x v="273"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="274"/>
-    <x v="274"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="275"/>
-    <x v="275"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="276"/>
-    <x v="276"/>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="277"/>
-    <x v="277"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="278"/>
-    <x v="278"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="279"/>
-    <x v="279"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="280"/>
-    <x v="280"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="281"/>
-    <x v="281"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="282"/>
-    <x v="282"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="283"/>
-    <x v="283"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="284"/>
-    <x v="284"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="285"/>
-    <x v="285"/>
-    <x v="18"/>
-  </r>
-  <r>
-    <x v="286"/>
-    <x v="286"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="287"/>
-    <x v="287"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="288"/>
-    <x v="288"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="289"/>
-    <x v="289"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="290"/>
-    <x v="290"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="291"/>
-    <x v="291"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="292"/>
-    <x v="292"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="293"/>
-    <x v="293"/>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="294"/>
-    <x v="294"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="295"/>
-    <x v="295"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="296"/>
-    <x v="296"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="297"/>
-    <x v="297"/>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="298"/>
-    <x v="298"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="299"/>
-    <x v="299"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="300"/>
-    <x v="300"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="301"/>
-    <x v="301"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="302"/>
-    <x v="302"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="303"/>
-    <x v="303"/>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="304"/>
-    <x v="304"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="305"/>
-    <x v="305"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="306"/>
-    <x v="306"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="307"/>
-    <x v="307"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="308"/>
-    <x v="308"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="309"/>
-    <x v="309"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="310"/>
-    <x v="310"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="311"/>
-    <x v="311"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="312"/>
-    <x v="312"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="313"/>
-    <x v="313"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="314"/>
-    <x v="314"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="315"/>
-    <x v="315"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="316"/>
-    <x v="316"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="317"/>
-    <x v="317"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="318"/>
-    <x v="318"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="319"/>
-    <x v="319"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="320"/>
-    <x v="320"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="321"/>
-    <x v="321"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="322"/>
-    <x v="322"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="323"/>
-    <x v="323"/>
-    <x v="18"/>
-  </r>
-  <r>
-    <x v="324"/>
-    <x v="324"/>
-    <x v="18"/>
-  </r>
-  <r>
-    <x v="325"/>
-    <x v="325"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="326"/>
-    <x v="326"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="327"/>
-    <x v="327"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="328"/>
-    <x v="328"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="329"/>
-    <x v="329"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="330"/>
-    <x v="330"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="331"/>
-    <x v="331"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="332"/>
-    <x v="332"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="333"/>
-    <x v="333"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="334"/>
-    <x v="334"/>
-    <x v="20"/>
-  </r>
-  <r>
-    <x v="335"/>
-    <x v="335"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="336"/>
-    <x v="336"/>
-    <x v="20"/>
-  </r>
-  <r>
-    <x v="337"/>
-    <x v="337"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="338"/>
-    <x v="338"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="339"/>
-    <x v="339"/>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="340"/>
-    <x v="340"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="341"/>
-    <x v="341"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="342"/>
-    <x v="342"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="343"/>
-    <x v="343"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="344"/>
-    <x v="344"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="345"/>
-    <x v="345"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="346"/>
-    <x v="346"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="347"/>
-    <x v="347"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="348"/>
-    <x v="348"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="349"/>
-    <x v="349"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="350"/>
-    <x v="350"/>
-    <x v="18"/>
-  </r>
-  <r>
-    <x v="351"/>
-    <x v="351"/>
-    <x v="20"/>
-  </r>
-  <r>
-    <x v="352"/>
-    <x v="352"/>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="353"/>
-    <x v="353"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="354"/>
-    <x v="354"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="355"/>
-    <x v="355"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="356"/>
-    <x v="356"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="357"/>
-    <x v="357"/>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="358"/>
-    <x v="358"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="359"/>
-    <x v="359"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="360"/>
-    <x v="360"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="361"/>
-    <x v="361"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="362"/>
-    <x v="362"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="363"/>
-    <x v="363"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="364"/>
-    <x v="364"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="365"/>
-    <x v="365"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="366"/>
-    <x v="366"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="367"/>
-    <x v="367"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="368"/>
-    <x v="368"/>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="369"/>
-    <x v="369"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="370"/>
-    <x v="370"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="371"/>
-    <x v="371"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="372"/>
-    <x v="372"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="373"/>
-    <x v="373"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="374"/>
-    <x v="374"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="375"/>
-    <x v="375"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="376"/>
-    <x v="376"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="377"/>
-    <x v="377"/>
-    <x v="18"/>
-  </r>
-  <r>
-    <x v="378"/>
-    <x v="378"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="379"/>
-    <x v="379"/>
-    <x v="18"/>
-  </r>
-  <r>
-    <x v="380"/>
-    <x v="380"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="381"/>
-    <x v="381"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="382"/>
-    <x v="382"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="383"/>
-    <x v="383"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="384"/>
-    <x v="384"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="385"/>
-    <x v="385"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="386"/>
-    <x v="386"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="387"/>
-    <x v="387"/>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="388"/>
-    <x v="388"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="389"/>
-    <x v="389"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="390"/>
-    <x v="390"/>
-    <x v="9"/>
-  </r>
-  <r>
-    <x v="391"/>
-    <x v="391"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="392"/>
-    <x v="392"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="393"/>
-    <x v="393"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="394"/>
-    <x v="394"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="395"/>
-    <x v="395"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="396"/>
-    <x v="396"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="397"/>
-    <x v="397"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="398"/>
-    <x v="398"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="399"/>
-    <x v="399"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="400"/>
-    <x v="400"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="401"/>
-    <x v="401"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="402"/>
-    <x v="402"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="403"/>
-    <x v="403"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="404"/>
-    <x v="404"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="405"/>
-    <x v="405"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="406"/>
-    <x v="406"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="407"/>
-    <x v="407"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="408"/>
-    <x v="408"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="409"/>
-    <x v="409"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="410"/>
-    <x v="410"/>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="411"/>
-    <x v="411"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="412"/>
-    <x v="412"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="413"/>
-    <x v="413"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="414"/>
-    <x v="414"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="415"/>
-    <x v="415"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="416"/>
-    <x v="416"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="417"/>
-    <x v="417"/>
-    <x v="18"/>
-  </r>
-  <r>
-    <x v="418"/>
-    <x v="418"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="419"/>
-    <x v="419"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="420"/>
-    <x v="420"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="421"/>
-    <x v="421"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="422"/>
-    <x v="422"/>
-    <x v="20"/>
-  </r>
-  <r>
-    <x v="423"/>
-    <x v="423"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="424"/>
-    <x v="424"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="425"/>
-    <x v="425"/>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="426"/>
-    <x v="426"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="427"/>
-    <x v="427"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="428"/>
-    <x v="428"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="429"/>
-    <x v="429"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="430"/>
-    <x v="430"/>
-    <x v="16"/>
-  </r>
-  <r>
-    <x v="431"/>
-    <x v="431"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="432"/>
-    <x v="432"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="433"/>
-    <x v="433"/>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="434"/>
-    <x v="434"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="435"/>
-    <x v="435"/>
-    <x v="20"/>
-  </r>
-  <r>
-    <x v="436"/>
-    <x v="436"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="437"/>
-    <x v="437"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="438"/>
-    <x v="438"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="439"/>
-    <x v="439"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="440"/>
-    <x v="440"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="441"/>
-    <x v="441"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="442"/>
-    <x v="442"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="443"/>
-    <x v="443"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="444"/>
-    <x v="444"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="445"/>
-    <x v="445"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="446"/>
-    <x v="446"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="447"/>
-    <x v="447"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="448"/>
-    <x v="448"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="449"/>
-    <x v="449"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="450"/>
-    <x v="450"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="451"/>
-    <x v="451"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="452"/>
-    <x v="452"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="453"/>
-    <x v="453"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="454"/>
-    <x v="454"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="455"/>
-    <x v="455"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="456"/>
-    <x v="456"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="457"/>
-    <x v="457"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="458"/>
-    <x v="458"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="459"/>
-    <x v="459"/>
-    <x v="7"/>
-  </r>
-  <r>
-    <x v="460"/>
-    <x v="460"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="461"/>
-    <x v="461"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="462"/>
-    <x v="462"/>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="463"/>
-    <x v="463"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="464"/>
-    <x v="464"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="465"/>
-    <x v="465"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="466"/>
-    <x v="466"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="467"/>
-    <x v="467"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="468"/>
-    <x v="468"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="469"/>
-    <x v="469"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="470"/>
-    <x v="470"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="471"/>
-    <x v="471"/>
-    <x v="3"/>
-  </r>
-  <r>
-    <x v="472"/>
-    <x v="472"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="473"/>
-    <x v="473"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="474"/>
-    <x v="474"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="475"/>
-    <x v="475"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="476"/>
-    <x v="476"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="477"/>
-    <x v="477"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="478"/>
-    <x v="478"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="479"/>
-    <x v="479"/>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="480"/>
-    <x v="480"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="481"/>
-    <x v="481"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="482"/>
-    <x v="482"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="483"/>
-    <x v="483"/>
-    <x v="6"/>
-  </r>
-  <r>
-    <x v="484"/>
-    <x v="484"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="485"/>
-    <x v="485"/>
-    <x v="5"/>
-  </r>
-  <r>
-    <x v="486"/>
-    <x v="486"/>
-    <x v="15"/>
-  </r>
-  <r>
-    <x v="487"/>
-    <x v="487"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="488"/>
-    <x v="488"/>
-    <x v="2"/>
-  </r>
-  <r>
-    <x v="489"/>
-    <x v="489"/>
-    <x v="19"/>
-  </r>
-  <r>
-    <x v="490"/>
-    <x v="490"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="491"/>
-    <x v="491"/>
-    <x v="14"/>
-  </r>
-  <r>
-    <x v="492"/>
-    <x v="492"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="493"/>
-    <x v="493"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <x v="494"/>
-    <x v="494"/>
-    <x v="13"/>
-  </r>
-  <r>
-    <x v="495"/>
-    <x v="495"/>
-    <x v="20"/>
-  </r>
-  <r>
-    <x v="496"/>
-    <x v="496"/>
-    <x v="12"/>
-  </r>
-  <r>
-    <x v="497"/>
-    <x v="497"/>
-    <x v="11"/>
-  </r>
-  <r>
-    <x v="498"/>
-    <x v="498"/>
-    <x v="4"/>
-  </r>
-  <r>
-    <x v="499"/>
-    <x v="499"/>
-    <x v="10"/>
-  </r>
-  <r>
-    <x v="500"/>
-    <x v="500"/>
-    <x v="8"/>
-  </r>
-  <r>
-    <x v="501"/>
-    <x v="501"/>
-    <x v="21"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" name="PivotTable5" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" showHeaders="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="A1:B58" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="3">
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="503">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="10"/>
-        <item x="3"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="4"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="5"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="36"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="42"/>
-        <item x="6"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="45"/>
-        <item x="46"/>
-        <item x="51"/>
-        <item x="52"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="61"/>
-        <item x="47"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="48"/>
-        <item x="64"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="67"/>
-        <item x="68"/>
-        <item x="69"/>
-        <item x="70"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="74"/>
-        <item x="49"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="77"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="80"/>
-        <item x="81"/>
-        <item x="82"/>
-        <item x="50"/>
-        <item x="83"/>
-        <item x="89"/>
-        <item x="90"/>
-        <item x="91"/>
-        <item x="92"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="84"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="97"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="85"/>
-        <item x="86"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="104"/>
-        <item x="105"/>
-        <item x="106"/>
-        <item x="107"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="113"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="87"/>
-        <item x="118"/>
-        <item x="88"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="121"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="122"/>
-        <item x="133"/>
-        <item x="134"/>
-        <item x="135"/>
-        <item x="138"/>
-        <item x="500"/>
-        <item x="139"/>
-        <item x="136"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="137"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="148"/>
-        <item x="150"/>
-        <item x="151"/>
-        <item x="152"/>
-        <item x="153"/>
-        <item x="154"/>
-        <item x="155"/>
-        <item x="156"/>
-        <item x="157"/>
-        <item x="149"/>
-        <item x="158"/>
-        <item x="159"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="168"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="178"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="181"/>
-        <item x="182"/>
-        <item x="183"/>
-        <item x="184"/>
-        <item x="185"/>
-        <item x="186"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="189"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="190"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="198"/>
-        <item x="194"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="201"/>
-        <item x="202"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="207"/>
-        <item x="195"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="211"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="215"/>
-        <item x="216"/>
-        <item x="217"/>
-        <item x="218"/>
-        <item x="219"/>
-        <item x="220"/>
-        <item x="224"/>
-        <item x="225"/>
-        <item x="226"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="229"/>
-        <item x="230"/>
-        <item x="231"/>
-        <item x="232"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="235"/>
-        <item x="236"/>
-        <item x="237"/>
-        <item x="238"/>
-        <item x="239"/>
-        <item x="240"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="244"/>
-        <item x="245"/>
-        <item x="221"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="246"/>
-        <item x="247"/>
-        <item x="254"/>
-        <item x="248"/>
-        <item x="255"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="263"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="264"/>
-        <item x="275"/>
-        <item x="276"/>
-        <item x="277"/>
-        <item x="265"/>
-        <item x="278"/>
-        <item x="266"/>
-        <item x="267"/>
-        <item x="279"/>
-        <item x="268"/>
-        <item x="280"/>
-        <item x="281"/>
-        <item x="284"/>
-        <item x="285"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="288"/>
-        <item x="289"/>
-        <item x="282"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="283"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="297"/>
-        <item x="298"/>
-        <item x="299"/>
-        <item x="300"/>
-        <item x="301"/>
-        <item x="302"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="306"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="310"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="313"/>
-        <item x="314"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="294"/>
-        <item x="317"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="295"/>
-        <item x="296"/>
-        <item x="320"/>
-        <item x="321"/>
-        <item x="331"/>
-        <item x="322"/>
-        <item x="332"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="325"/>
-        <item x="337"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="328"/>
-        <item x="329"/>
-        <item x="330"/>
-        <item x="338"/>
-        <item x="339"/>
-        <item x="340"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="343"/>
-        <item x="344"/>
-        <item x="345"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="346"/>
-        <item x="347"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="356"/>
-        <item x="357"/>
-        <item x="348"/>
-        <item x="358"/>
-        <item x="359"/>
-        <item x="360"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="361"/>
-        <item x="362"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="365"/>
-        <item x="366"/>
-        <item x="367"/>
-        <item x="368"/>
-        <item x="369"/>
-        <item x="370"/>
-        <item x="371"/>
-        <item x="372"/>
-        <item x="351"/>
-        <item x="373"/>
-        <item x="378"/>
-        <item x="379"/>
-        <item x="380"/>
-        <item x="381"/>
-        <item x="382"/>
-        <item x="383"/>
-        <item x="384"/>
-        <item x="385"/>
-        <item x="386"/>
-        <item x="387"/>
-        <item x="374"/>
-        <item x="375"/>
-        <item x="388"/>
-        <item x="389"/>
-        <item x="390"/>
-        <item x="391"/>
-        <item x="376"/>
-        <item x="377"/>
-        <item x="392"/>
-        <item x="393"/>
-        <item x="399"/>
-        <item x="400"/>
-        <item x="401"/>
-        <item x="394"/>
-        <item x="395"/>
-        <item x="402"/>
-        <item x="403"/>
-        <item x="404"/>
-        <item x="405"/>
-        <item x="406"/>
-        <item x="407"/>
-        <item x="408"/>
-        <item x="409"/>
-        <item x="396"/>
-        <item x="397"/>
-        <item x="410"/>
-        <item x="411"/>
-        <item x="412"/>
-        <item x="413"/>
-        <item x="398"/>
-        <item x="414"/>
-        <item x="415"/>
-        <item x="416"/>
-        <item x="417"/>
-        <item x="418"/>
-        <item x="419"/>
-        <item x="420"/>
-        <item x="421"/>
-        <item x="422"/>
-        <item x="423"/>
-        <item x="424"/>
-        <item x="425"/>
-        <item x="426"/>
-        <item x="427"/>
-        <item x="428"/>
-        <item x="429"/>
-        <item x="430"/>
-        <item x="431"/>
-        <item x="437"/>
-        <item x="438"/>
-        <item x="439"/>
-        <item x="440"/>
-        <item x="441"/>
-        <item x="442"/>
-        <item x="443"/>
-        <item x="444"/>
-        <item x="445"/>
-        <item x="446"/>
-        <item x="447"/>
-        <item x="448"/>
-        <item x="449"/>
-        <item x="432"/>
-        <item x="433"/>
-        <item x="450"/>
-        <item x="451"/>
-        <item x="452"/>
-        <item x="453"/>
-        <item x="454"/>
-        <item x="455"/>
-        <item x="456"/>
-        <item x="457"/>
-        <item x="458"/>
-        <item x="459"/>
-        <item x="460"/>
-        <item x="461"/>
-        <item x="462"/>
-        <item x="463"/>
-        <item x="464"/>
-        <item x="434"/>
-        <item x="465"/>
-        <item x="435"/>
-        <item x="436"/>
-        <item x="466"/>
-        <item x="467"/>
-        <item x="471"/>
-        <item x="472"/>
-        <item x="473"/>
-        <item x="474"/>
-        <item x="468"/>
-        <item x="469"/>
-        <item x="470"/>
-        <item x="477"/>
-        <item x="478"/>
-        <item x="479"/>
-        <item x="480"/>
-        <item x="481"/>
-        <item x="482"/>
-        <item x="483"/>
-        <item x="475"/>
-        <item x="484"/>
-        <item x="485"/>
-        <item x="476"/>
-        <item x="486"/>
-        <item x="487"/>
-        <item x="488"/>
-        <item x="489"/>
-        <item x="490"/>
-        <item x="491"/>
-        <item x="492"/>
-        <item x="493"/>
-        <item x="495"/>
-        <item x="496"/>
-        <item x="494"/>
-        <item x="497"/>
-        <item x="498"/>
-        <item x="499"/>
-        <item x="501"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="503">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="2"/>
-        <item x="10"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="3"/>
-        <item x="36"/>
-        <item x="11"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item x="16"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="4"/>
-        <item x="23"/>
-        <item x="25"/>
-        <item x="26"/>
-        <item x="27"/>
-        <item x="28"/>
-        <item x="29"/>
-        <item x="30"/>
-        <item x="31"/>
-        <item x="32"/>
-        <item x="5"/>
-        <item x="24"/>
-        <item x="33"/>
-        <item x="34"/>
-        <item x="35"/>
-        <item x="37"/>
-        <item x="38"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="41"/>
-        <item x="15"/>
-        <item x="42"/>
-        <item x="6"/>
-        <item x="43"/>
-        <item x="44"/>
-        <item x="17"/>
-        <item x="46"/>
-        <item x="51"/>
-        <item x="53"/>
-        <item x="54"/>
-        <item x="52"/>
-        <item x="55"/>
-        <item x="56"/>
-        <item x="57"/>
-        <item x="58"/>
-        <item x="59"/>
-        <item x="60"/>
-        <item x="47"/>
-        <item x="62"/>
-        <item x="63"/>
-        <item x="77"/>
-        <item x="81"/>
-        <item x="65"/>
-        <item x="66"/>
-        <item x="48"/>
-        <item x="64"/>
-        <item x="67"/>
-        <item x="70"/>
-        <item x="68"/>
-        <item x="71"/>
-        <item x="72"/>
-        <item x="73"/>
-        <item x="49"/>
-        <item x="75"/>
-        <item x="76"/>
-        <item x="78"/>
-        <item x="79"/>
-        <item x="69"/>
-        <item x="80"/>
-        <item x="82"/>
-        <item x="50"/>
-        <item x="74"/>
-        <item x="89"/>
-        <item x="113"/>
-        <item x="91"/>
-        <item x="90"/>
-        <item x="93"/>
-        <item x="94"/>
-        <item x="84"/>
-        <item x="97"/>
-        <item x="95"/>
-        <item x="96"/>
-        <item x="98"/>
-        <item x="99"/>
-        <item x="100"/>
-        <item x="85"/>
-        <item x="92"/>
-        <item x="86"/>
-        <item x="101"/>
-        <item x="102"/>
-        <item x="103"/>
-        <item x="105"/>
-        <item x="104"/>
-        <item x="106"/>
-        <item x="108"/>
-        <item x="109"/>
-        <item x="110"/>
-        <item x="111"/>
-        <item x="112"/>
-        <item x="114"/>
-        <item x="115"/>
-        <item x="116"/>
-        <item x="117"/>
-        <item x="87"/>
-        <item x="118"/>
-        <item x="88"/>
-        <item x="107"/>
-        <item x="119"/>
-        <item x="120"/>
-        <item x="123"/>
-        <item x="124"/>
-        <item x="125"/>
-        <item x="121"/>
-        <item x="126"/>
-        <item x="127"/>
-        <item x="128"/>
-        <item x="129"/>
-        <item x="130"/>
-        <item x="131"/>
-        <item x="132"/>
-        <item x="122"/>
-        <item x="45"/>
-        <item x="134"/>
-        <item x="138"/>
-        <item x="500"/>
-        <item x="139"/>
-        <item x="135"/>
-        <item x="136"/>
-        <item x="140"/>
-        <item x="141"/>
-        <item x="142"/>
-        <item x="143"/>
-        <item x="137"/>
-        <item x="144"/>
-        <item x="145"/>
-        <item x="146"/>
-        <item x="147"/>
-        <item x="151"/>
-        <item x="148"/>
-        <item x="150"/>
-        <item x="153"/>
-        <item x="152"/>
-        <item x="154"/>
-        <item x="156"/>
-        <item x="183"/>
-        <item x="157"/>
-        <item x="155"/>
-        <item x="182"/>
-        <item x="159"/>
-        <item x="162"/>
-        <item x="163"/>
-        <item x="178"/>
-        <item x="164"/>
-        <item x="165"/>
-        <item x="166"/>
-        <item x="167"/>
-        <item x="160"/>
-        <item x="161"/>
-        <item x="185"/>
-        <item x="169"/>
-        <item x="170"/>
-        <item x="171"/>
-        <item x="172"/>
-        <item x="173"/>
-        <item x="174"/>
-        <item x="186"/>
-        <item x="175"/>
-        <item x="176"/>
-        <item x="177"/>
-        <item x="179"/>
-        <item x="180"/>
-        <item x="158"/>
-        <item x="187"/>
-        <item x="188"/>
-        <item x="181"/>
-        <item x="184"/>
-        <item x="202"/>
-        <item x="196"/>
-        <item x="197"/>
-        <item x="190"/>
-        <item x="211"/>
-        <item x="191"/>
-        <item x="192"/>
-        <item x="193"/>
-        <item x="189"/>
-        <item x="198"/>
-        <item x="194"/>
-        <item x="201"/>
-        <item x="199"/>
-        <item x="200"/>
-        <item x="203"/>
-        <item x="204"/>
-        <item x="205"/>
-        <item x="206"/>
-        <item x="195"/>
-        <item x="208"/>
-        <item x="209"/>
-        <item x="210"/>
-        <item x="226"/>
-        <item x="225"/>
-        <item x="212"/>
-        <item x="213"/>
-        <item x="214"/>
-        <item x="216"/>
-        <item x="486"/>
-        <item x="218"/>
-        <item x="217"/>
-        <item x="229"/>
-        <item x="219"/>
-        <item x="236"/>
-        <item x="220"/>
-        <item x="230"/>
-        <item x="224"/>
-        <item x="227"/>
-        <item x="228"/>
-        <item x="244"/>
-        <item x="235"/>
-        <item x="238"/>
-        <item x="237"/>
-        <item x="239"/>
-        <item x="241"/>
-        <item x="242"/>
-        <item x="243"/>
-        <item x="232"/>
-        <item x="231"/>
-        <item x="245"/>
-        <item x="221"/>
-        <item x="233"/>
-        <item x="234"/>
-        <item x="215"/>
-        <item x="222"/>
-        <item x="223"/>
-        <item x="254"/>
-        <item x="246"/>
-        <item x="248"/>
-        <item x="256"/>
-        <item x="257"/>
-        <item x="247"/>
-        <item x="249"/>
-        <item x="250"/>
-        <item x="251"/>
-        <item x="255"/>
-        <item x="252"/>
-        <item x="253"/>
-        <item x="258"/>
-        <item x="259"/>
-        <item x="260"/>
-        <item x="261"/>
-        <item x="262"/>
-        <item x="269"/>
-        <item x="270"/>
-        <item x="271"/>
-        <item x="272"/>
-        <item x="273"/>
-        <item x="274"/>
-        <item x="264"/>
-        <item x="275"/>
-        <item x="277"/>
-        <item x="279"/>
-        <item x="265"/>
-        <item x="278"/>
-        <item x="266"/>
-        <item x="263"/>
-        <item x="267"/>
-        <item x="268"/>
-        <item x="280"/>
-        <item x="133"/>
-        <item x="286"/>
-        <item x="287"/>
-        <item x="284"/>
-        <item x="289"/>
-        <item x="282"/>
-        <item x="290"/>
-        <item x="291"/>
-        <item x="297"/>
-        <item x="285"/>
-        <item x="283"/>
-        <item x="281"/>
-        <item x="292"/>
-        <item x="293"/>
-        <item x="288"/>
-        <item x="300"/>
-        <item x="299"/>
-        <item x="61"/>
-        <item x="301"/>
-        <item x="303"/>
-        <item x="304"/>
-        <item x="305"/>
-        <item x="482"/>
-        <item x="83"/>
-        <item x="307"/>
-        <item x="308"/>
-        <item x="309"/>
-        <item x="311"/>
-        <item x="312"/>
-        <item x="474"/>
-        <item x="320"/>
-        <item x="168"/>
-        <item x="313"/>
-        <item x="315"/>
-        <item x="316"/>
-        <item x="314"/>
-        <item x="310"/>
-        <item x="298"/>
-        <item x="302"/>
-        <item x="294"/>
-        <item x="399"/>
-        <item x="318"/>
-        <item x="319"/>
-        <item x="295"/>
-        <item x="306"/>
-        <item x="317"/>
-        <item x="296"/>
-        <item x="321"/>
-        <item x="337"/>
-        <item x="322"/>
-        <item x="332"/>
-        <item x="240"/>
-        <item x="333"/>
-        <item x="334"/>
-        <item x="323"/>
-        <item x="324"/>
-        <item x="335"/>
-        <item x="336"/>
-        <item x="331"/>
-        <item x="325"/>
-        <item x="453"/>
-        <item x="326"/>
-        <item x="327"/>
-        <item x="329"/>
-        <item x="328"/>
-        <item x="330"/>
-        <item x="338"/>
-        <item x="149"/>
-        <item x="339"/>
-        <item x="344"/>
-        <item x="341"/>
-        <item x="342"/>
-        <item x="340"/>
-        <item x="345"/>
-        <item x="352"/>
-        <item x="353"/>
-        <item x="343"/>
-        <item x="347"/>
-        <item x="359"/>
-        <item x="354"/>
-        <item x="355"/>
-        <item x="365"/>
-        <item x="356"/>
-        <item x="371"/>
-        <item x="357"/>
-        <item x="358"/>
-        <item x="348"/>
-        <item x="372"/>
-        <item x="349"/>
-        <item x="350"/>
-        <item x="346"/>
-        <item x="362"/>
-        <item x="361"/>
-        <item x="363"/>
-        <item x="364"/>
-        <item x="366"/>
-        <item x="207"/>
-        <item x="360"/>
-        <item x="367"/>
-        <item x="368"/>
-        <item x="369"/>
-        <item x="370"/>
-        <item x="351"/>
-        <item x="373"/>
-        <item x="378"/>
-        <item x="380"/>
-        <item x="381"/>
-        <item x="382"/>
-        <item x="383"/>
-        <item x="454"/>
-        <item x="385"/>
-        <item x="387"/>
-        <item x="391"/>
-        <item x="374"/>
-        <item x="384"/>
-        <item x="375"/>
-        <item x="388"/>
-        <item x="389"/>
-        <item x="390"/>
-        <item x="406"/>
-        <item x="376"/>
-        <item x="377"/>
-        <item x="392"/>
-        <item x="393"/>
-        <item x="386"/>
-        <item x="276"/>
-        <item x="379"/>
-        <item x="416"/>
-        <item x="400"/>
-        <item x="401"/>
-        <item x="394"/>
-        <item x="395"/>
-        <item x="415"/>
-        <item x="402"/>
-        <item x="403"/>
-        <item x="404"/>
-        <item x="405"/>
-        <item x="407"/>
-        <item x="408"/>
-        <item x="409"/>
-        <item x="396"/>
-        <item x="397"/>
-        <item x="410"/>
-        <item x="411"/>
-        <item x="412"/>
-        <item x="413"/>
-        <item x="420"/>
-        <item x="398"/>
-        <item x="414"/>
-        <item x="418"/>
-        <item x="419"/>
-        <item x="423"/>
-        <item x="424"/>
-        <item x="421"/>
-        <item x="425"/>
-        <item x="422"/>
-        <item x="426"/>
-        <item x="427"/>
-        <item x="428"/>
-        <item x="429"/>
-        <item x="430"/>
-        <item x="417"/>
-        <item x="431"/>
-        <item x="438"/>
-        <item x="439"/>
-        <item x="440"/>
-        <item x="442"/>
-        <item x="443"/>
-        <item x="444"/>
-        <item x="446"/>
-        <item x="445"/>
-        <item x="447"/>
-        <item x="448"/>
-        <item x="460"/>
-        <item x="432"/>
-        <item x="433"/>
-        <item x="441"/>
-        <item x="450"/>
-        <item x="451"/>
-        <item x="452"/>
-        <item x="455"/>
-        <item x="465"/>
-        <item x="456"/>
-        <item x="457"/>
-        <item x="437"/>
-        <item x="458"/>
-        <item x="459"/>
-        <item x="461"/>
-        <item x="462"/>
-        <item x="464"/>
-        <item x="463"/>
-        <item x="434"/>
-        <item x="449"/>
-        <item x="435"/>
-        <item x="436"/>
-        <item x="473"/>
-        <item x="466"/>
-        <item x="467"/>
-        <item x="471"/>
-        <item x="472"/>
-        <item x="468"/>
-        <item x="469"/>
-        <item x="470"/>
-        <item x="478"/>
-        <item x="480"/>
-        <item x="481"/>
-        <item x="483"/>
-        <item x="475"/>
-        <item x="484"/>
-        <item x="485"/>
-        <item x="477"/>
-        <item x="476"/>
-        <item x="487"/>
-        <item x="479"/>
-        <item x="488"/>
-        <item x="489"/>
-        <item x="490"/>
-        <item x="491"/>
-        <item x="492"/>
-        <item x="493"/>
-        <item x="495"/>
-        <item x="496"/>
-        <item x="494"/>
-        <item x="497"/>
-        <item x="498"/>
-        <item x="499"/>
-        <item x="501"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="23">
-        <item h="1" x="13"/>
-        <item h="1" sd="0" x="2"/>
-        <item h="1" sd="0" x="5"/>
-        <item h="1" sd="0" x="18"/>
-        <item h="1" sd="0" x="3"/>
-        <item sd="0" x="14"/>
-        <item h="1" sd="0" x="11"/>
-        <item h="1" sd="0" x="1"/>
-        <item h="1" sd="0" x="10"/>
-        <item h="1" sd="0" x="0"/>
-        <item h="1" sd="0" x="17"/>
-        <item h="1" sd="0" x="4"/>
-        <item h="1" sd="0" x="12"/>
-        <item h="1" x="20"/>
-        <item h="1" sd="0" x="6"/>
-        <item h="1" x="9"/>
-        <item h="1" sd="0" x="7"/>
-        <item h="1" sd="0" x="16"/>
-        <item h="1" sd="0" x="8"/>
-        <item h="1" sd="0" x="15"/>
-        <item h="1" sd="0" x="19"/>
-        <item h="1" sd="0" x="21"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="0"/>
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="57">
-    <i>
-      <x v="26"/>
-    </i>
-    <i r="1">
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i r="1">
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i r="1">
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i r="1">
-      <x v="64"/>
-    </i>
-    <i>
-      <x v="75"/>
-    </i>
-    <i r="1">
-      <x v="73"/>
-    </i>
-    <i>
-      <x v="84"/>
-    </i>
-    <i r="1">
-      <x v="81"/>
-    </i>
-    <i>
-      <x v="94"/>
-    </i>
-    <i r="1">
-      <x v="91"/>
-    </i>
-    <i>
-      <x v="96"/>
-    </i>
-    <i r="1">
-      <x v="93"/>
-    </i>
-    <i>
-      <x v="117"/>
-    </i>
-    <i r="1">
-      <x v="113"/>
-    </i>
-    <i>
-      <x v="131"/>
-    </i>
-    <i r="1">
-      <x v="128"/>
-    </i>
-    <i>
-      <x v="180"/>
-    </i>
-    <i r="1">
-      <x v="178"/>
-    </i>
-    <i>
-      <x v="192"/>
-    </i>
-    <i r="1">
-      <x v="187"/>
-    </i>
-    <i>
-      <x v="220"/>
-    </i>
-    <i r="1">
-      <x v="217"/>
-    </i>
-    <i>
-      <x v="233"/>
-    </i>
-    <i r="1">
-      <x v="225"/>
-    </i>
-    <i>
-      <x v="265"/>
-    </i>
-    <i r="1">
-      <x v="258"/>
-    </i>
-    <i>
-      <x v="267"/>
-    </i>
-    <i r="1">
-      <x v="260"/>
-    </i>
-    <i>
-      <x v="268"/>
-    </i>
-    <i r="1">
-      <x v="261"/>
-    </i>
-    <i>
-      <x v="313"/>
-    </i>
-    <i r="1">
-      <x v="308"/>
-    </i>
-    <i>
-      <x v="346"/>
-    </i>
-    <i r="1">
-      <x v="348"/>
-    </i>
-    <i>
-      <x v="379"/>
-    </i>
-    <i r="1">
-      <x v="382"/>
-    </i>
-    <i>
-      <x v="388"/>
-    </i>
-    <i r="1">
-      <x v="392"/>
-    </i>
-    <i>
-      <x v="455"/>
-    </i>
-    <i r="1">
-      <x v="458"/>
-    </i>
-    <i>
-      <x v="463"/>
-    </i>
-    <i r="1">
-      <x v="466"/>
-    </i>
-    <i>
-      <x v="476"/>
-    </i>
-    <i r="1">
-      <x v="485"/>
-    </i>
-    <i>
-      <x v="477"/>
-    </i>
-    <i r="1">
-      <x v="478"/>
-    </i>
-    <i>
-      <x v="483"/>
-    </i>
-    <i r="1">
-      <x v="482"/>
-    </i>
-    <i>
-      <x v="488"/>
-    </i>
-    <i r="1">
-      <x v="487"/>
-    </i>
-    <i>
-      <x v="492"/>
-    </i>
-    <i r="1">
-      <x v="492"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Count of Company Name" fld="0" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://purl.oclc.org/ooxml/spreadsheetml/main" mc:Ignorable="x" name="Slicer_Industry" sourceName="Industry">
-  <pivotTables>
-    <pivotTable tabId="3" name="PivotTable5"/>
-  </pivotTables>
-  <data>
-    <tabular pivotCacheId="1">
-      <items count="22">
-        <i x="13"/>
-        <i x="2"/>
-        <i x="5"/>
-        <i x="18"/>
-        <i x="3"/>
-        <i x="14" s="1"/>
-        <i x="11"/>
-        <i x="1"/>
-        <i x="10"/>
-        <i x="0"/>
-        <i x="17"/>
-        <i x="4"/>
-        <i x="12"/>
-        <i x="20"/>
-        <i x="6"/>
-        <i x="9"/>
-        <i x="7"/>
-        <i x="16"/>
-        <i x="8"/>
-        <i x="15"/>
-        <i x="19"/>
-        <i x="21" nd="1"/>
-      </items>
-    </tabular>
-  </data>
-</slicerCacheDefinition>
-</file>
-
-<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
-<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://purl.oclc.org/ooxml/spreadsheetml/main" mc:Ignorable="x">
-  <slicer name="Industry" cache="Slicer_Industry" caption="Industry" columnCount="4" rowHeight="241300"/>
-</slicers>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8859,530 +3911,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:C502"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="42.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" customWidth="1"/>
-    <col min="4" max="4" width="5.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" customWidth="1"/>
-    <col min="8" max="8" width="5.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="3.85546875" customWidth="1"/>
-    <col min="12" max="12" width="4.140625" customWidth="1"/>
-    <col min="13" max="13" width="5.140625" customWidth="1"/>
-    <col min="14" max="14" width="6" customWidth="1"/>
-    <col min="15" max="15" width="3.85546875" customWidth="1"/>
-    <col min="16" max="16" width="6.42578125" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" customWidth="1"/>
-    <col min="18" max="18" width="9.42578125" customWidth="1"/>
-    <col min="19" max="19" width="11.28515625" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" customWidth="1"/>
-    <col min="21" max="21" width="21.42578125" customWidth="1"/>
-    <col min="22" max="22" width="39.85546875" customWidth="1"/>
-    <col min="23" max="23" width="18.85546875" customWidth="1"/>
-    <col min="24" max="24" width="30.5703125" customWidth="1"/>
-    <col min="25" max="25" width="22" customWidth="1"/>
-    <col min="26" max="26" width="23" customWidth="1"/>
-    <col min="27" max="27" width="19.140625" customWidth="1"/>
-    <col min="28" max="28" width="15.42578125" customWidth="1"/>
-    <col min="29" max="29" width="28.28515625" customWidth="1"/>
-    <col min="30" max="30" width="23.140625" customWidth="1"/>
-    <col min="31" max="31" width="15.28515625" customWidth="1"/>
-    <col min="32" max="32" width="21.85546875" customWidth="1"/>
-    <col min="33" max="33" width="45.5703125" customWidth="1"/>
-    <col min="34" max="34" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B11" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B14" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="B16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B18" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B19" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="B20" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B22" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B28" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>494</v>
-      </c>
-      <c r="B29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>561</v>
-      </c>
-      <c r="B30" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>562</v>
-      </c>
-      <c r="B31" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>565</v>
-      </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>566</v>
-      </c>
-      <c r="B33" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="B34" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>568</v>
-      </c>
-      <c r="B35" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="B36" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>654</v>
-      </c>
-      <c r="B37" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>714</v>
-      </c>
-      <c r="B38" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="B39" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="B40" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="B41" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>802</v>
-      </c>
-      <c r="B42" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="B43" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>938</v>
-      </c>
-      <c r="B44" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>939</v>
-      </c>
-      <c r="B45" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>892</v>
-      </c>
-      <c r="B46" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="B47" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>978</v>
-      </c>
-      <c r="B48" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>979</v>
-      </c>
-      <c r="B49" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>980</v>
-      </c>
-      <c r="B50" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>981</v>
-      </c>
-      <c r="B51" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>974</v>
-      </c>
-      <c r="B52" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>975</v>
-      </c>
-      <c r="B53" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>998</v>
-      </c>
-      <c r="B54" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>999</v>
-      </c>
-      <c r="B55" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B56" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>1007</v>
-      </c>
-      <c r="B57" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B58" s="3">
-        <v>28</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
-      <x14:slicerList>
-        <x14:slicer r:id="rId3"/>
-      </x14:slicerList>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C502"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14915,7 +9447,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C502"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>